--- a/prueba_01.xlsx
+++ b/prueba_01.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INEC\Proyectos\Bayesian_IVOPA_CEPAL\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\UNFPA 2024\test\Populorum-Univalle_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD978577-5ABE-45C6-9704-10236C0BA327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,14 +355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -360,121 +372,114 @@
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3">
         <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/prueba_01.xlsx
+++ b/prueba_01.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\UNFPA 2024\test\Populorum-Univalle_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INEC\Prueba\Populorum-Univalle_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD978577-5ABE-45C6-9704-10236C0BA327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Prueba</t>
+  </si>
+  <si>
+    <t>cambios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,104 +357,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
